--- a/translations/parent_text_crisis_palestine/excel files/navigation.xlsx
+++ b/translations/parent_text_crisis_palestine/excel files/navigation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B221"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Arabic</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -452,6 +457,11 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -460,6 +470,11 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -468,6 +483,11 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -476,14 +496,24 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{generic referrals}</t>
+          <t>{generic_referrals}</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -492,6 +522,11 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -500,14 +535,24 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{health referrals}</t>
+          <t>{health_referrals}</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -516,6 +561,11 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -524,6 +574,11 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -532,6 +587,11 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -540,6 +600,11 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -548,6 +613,11 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -556,1654 +626,2702 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>{family referrals}</t>
+          <t>{family_referrals}</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>What would you like to do?</t>
+          <t>{child_protection}</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>We hope this was helpful. You can access this information at any time by typing {HELP}.</t>
+          <t>What would you like to do?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Welcome back to ParentText!</t>
+          <t>We hope this was helpful. You can access this information at any time by typing {HELP}.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>I don't understand your message.</t>
+          <t>Welcome back to ParentText!</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Please type {MENU} to access resources and review previous tips, {PLAY} to receive a playful activity you can complete with your child, or {HELP} to access additional support resources.</t>
+          <t>I don't understand your message.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>You have not given consent to participate in this programme. Would you like to participate?</t>
+          <t>Please type {MENU} to access resources and review previous tips, {PLAY} to receive a playful activity you can complete with your child, or {HELP} to access additional support resources.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you ever want to receive these tips in the future just type HELLO. </t>
+          <t>You have not given consent to participate in this programme. Would you like to participate?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>We hope to see you again soon.</t>
+          <t xml:space="preserve">If you ever want to receive these tips in the future just type HELLO. </t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>We are here to help. You've received @fields.c_n_mod_compl out of @fields.c_n_mod tips. Would you like to continue?</t>
+          <t>We hope to see you again soon.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">That's okay. If you ever decide to come back, type HELLO. </t>
+          <t>We are here to help. You've received @fields.c_n_mod_compl out of @fields.c_n_mod tips. Would you like to continue?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>We hope to see you again soon, and we wish you a happy and peaceful day!</t>
+          <t xml:space="preserve">That's okay. If you ever decide to come back, type HELLO. </t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>You are already part of ParentText</t>
+          <t>We hope to see you again soon, and we wish you a happy and peaceful day!</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>You have already received all of the avilable tips. Type {MENU} to review previous tips.</t>
+          <t>You are already part of ParentText</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Welcome back to ParentText.</t>
+          <t>You have already received all of the avilable tips. Type {MENU} to review previous tips.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Are you sure you want to stop receiving tips?</t>
+          <t>Welcome back to ParentText.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>If you do not want to receive any more messages, please type "EXIT".</t>
+          <t>Are you sure you want to stop receiving tips?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>If you made a mistake, please type "BACK".</t>
+          <t>If you do not want to receive any more messages, please type "EXIT".</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thank you for participating. If you want to return to continue receiving tips, type HELLO. </t>
+          <t>If you made a mistake, please type "BACK".</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>This feature will be available once you have completed registration. It won’t take long. Please continue your progress!</t>
+          <t xml:space="preserve">Thank you for participating. If you want to return to continue receiving tips, type HELLO. </t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>The menu will be available once you have completed registration. It won’t take long. Please continue your progress!</t>
+          <t>We are so glad you want to stick around! We will resume your progress tomorrow.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Thank you for taking a pause with me today.</t>
+          <t>This feature will be available once you have completed registration. It won’t take long. Please continue your progress!</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>In this program, you will receive @fields.c_n_mod tips. Your first tip is "@results.name".</t>
+          <t>The menu will be available once you have completed registration. It won’t take long. Please continue your progress!</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>Thank you for taking a pause with me today.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Let’s get started. Press NEXT to begin.</t>
+          <t>In this program, you will receive @fields.c_n_mod tips. Your first tip is "@results.name".</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>The tips you haven't finished are:</t>
+          <t>Let’s get started. Press NEXT to begin.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>@(text_slice(results.message_options,3)).</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Which tip would you like to receive?</t>
+          <t>The tips you haven't finished are:</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>@results.message_options</t>
+          <t>@(text_slice(results.message_options,3)).</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>You haven't received any tips yet.</t>
+          <t>Which tip would you like to receive?</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>You have received the following tips:</t>
+          <t>@results.message_options</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Would you like to review it?</t>
+          <t>You haven't received any tips yet.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>That's okay. You can come back here at any time to review it.</t>
+          <t>You have received the following tips:</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>You have completed @fields.n_s_modules_compl out of @fields.n_s_modules tips. Which of the following tips would you like to review?</t>
+          <t>Would you like to review it?</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>@(word_count(fields.s_modules_compl) +1). Return to Main Menu</t>
+          <t>That's okay. You can come back here at any time to review it.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>What would you like now?</t>
+          <t>You have completed @fields.n_s_modules_compl out of @fields.n_s_modules tips. Which of the following tips would you like to review?</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Alright. I will share more tips tomorrow.</t>
+          <t>@(word_count(fields.s_modules_compl) +1). Return to Main Menu</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>OK, see you tomorrow.</t>
+          <t>What would you like now?</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>What kind of activity do you want to try with your child?</t>
+          <t>Alright. I will share more tips tomorrow.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Do you want to begin now or tomorrow?</t>
+          <t>OK, see you tomorrow.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Great, see you tomorrow!</t>
+          <t>What kind of activity do you want to try with your child?</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>You have completed the programme. Well done!</t>
+          <t>Do you want to begin now or tomorrow?</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Remember, you can always return to ParentText to review these tips. Just type {MENU}.</t>
+          <t>Great, see you tomorrow!</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Was ParentText helpful? If so, share it with a friend. Just send this link: {insert link}</t>
+          <t>You have completed the programme. Well done!</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>It’s a difficult moment for your family. I’m here today with a few tips to create small moments of connection with your child to give them the routine and stability you all need right now. Press 1 to continue with your registration.</t>
+          <t>Remember, you can always return to ParentText to review these tips. Just type {MENU}.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>It looks like you started answering some baseline questions but didn't get a chance to finish. Would you like to continue now and then we can move onto the tips?</t>
+          <t>Was ParentText helpful? If so, share it with a friend. Just send this link: {insert link}</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>It looks like you started a tip, but didn't finish receiving all of the information. Would you like to finish it or start learning someting new?</t>
+          <t xml:space="preserve">It’s a difficult moment for your family. I’m here today with a few tips to create small moments of connection with your child to give them the routine and stability you all need right now. </t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>It looks like you started a parenting tip, but didn't finish receiving all of the information. What would you like to do?</t>
+          <t xml:space="preserve">Press a number on your keypad: </t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>It looks like you have started, but not finished, @fields.c_n_mod_started tips. What would you like to do?</t>
+          <t>1. Continue with my registration</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>You and your family are facing a challenging time. ParentText provides tips on how you can support your child during this crisis. Would you like to recieve your first tips now?</t>
+          <t>2. Remind me tomorrow</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>New tips are ready for you. Would you like to continue now?</t>
+          <t>It looks like you started answering some baseline questions but didn't get a chance to finish. Would you like to continue now and then we can move onto the tips?</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">💛 We’re thinking of you today. There are simple things you can do to help your child cope. Would you like to learn about them? </t>
+          <t>1. Continue my initial questions</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Press a number on your keypad: </t>
+          <t>It looks like you started a tip, but didn't finish receiving all of the information. Would you like to finish it or start learning someting new?</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1. Yes</t>
+          <t>1. Finish the previous tip</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2. No, remind me tomorrow.</t>
+          <t>2. Receive a new tip</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">✨ Today’s tips can help your child feel more safe. Would you like to learn more? </t>
+          <t>3. Remind me tomorrow</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Today’s tips offer you some ways you can stay calm and also encourage your children during times of uncertainty 🌱. </t>
+          <t>It looks like you started a parenting tip, but didn't finish receiving all of the information. What would you like to do?</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Would you like to receive them?</t>
+          <t>1. Receive the remaining information</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>🧡 Planning to travel with your child soon?</t>
+          <t>2. Remind me about this tomorrow</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Today’s tips can help you prepare to stay safe— Would you like to learn more?</t>
+          <t>3. I've finished receiving all of the information that I want from this chatbot</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>💛 In stressful moments, even simple actions can help keep your child safe and close. Today’s tips share how to stay connected and calm when traveling.</t>
+          <t>It looks like you have started, but not finished, @fields.c_n_mod_started tips. What would you like to do?</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>🫂 Many parents are having quiet talks with their children about staying safe. Today’s tips explain how to keep your child safe from harassment in a calm, age-appropriate way.</t>
+          <t>You and your family are facing a challenging time. ParentText provides tips on how you can support your child during this crisis. Would you like to recieve your first tips now?</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>🕊️ In war and other tough times, children notice more than we think. Today’s tips help you talk to your child about death so they can feel safer, less confused, and more supported. Would you like to receive the tips?</t>
+          <t>1. Yes</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>🌿 Building strength in tough times starts with simple steps. Would you like to learn how to promote good behaviors and stay strong together?</t>
+          <t>2. No, remind me tomorrow.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>This time is difficult. It doesn't seem like you have the time for the these tips right now. When you are ready to keep going, press 1.</t>
+          <t>New tips are ready for you. Would you like to continue now?</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>We hope this was helpful! You can access the Main Menu at any time by typing {MENU}.</t>
+          <t xml:space="preserve">💛 We’re thinking of you today. There are simple things you can do to help your child cope. Would you like to learn about them? </t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>To invite someone to join, share this link!</t>
+          <t xml:space="preserve">✨ Today’s tips can help your child feel more safe. Would you like to learn more? </t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>{insert link}</t>
+          <t xml:space="preserve">Today’s tips offer you some ways you can stay calm and also encourage your children during times of uncertainty 🌱. </t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>What would you like to do next?</t>
+          <t>Would you like to receive them?</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>We hope this was helpful. You can access the Main Menu at any time by typing {MENU}.</t>
+          <t>🧡 Planning to travel with your child soon?</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>You've reached the end of today's tip. Well done for caring for your child during this challenging time.</t>
+          <t>Today’s tips can help you prepare to stay safe— Would you like to learn more?</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>What would you like change?</t>
+          <t>2. No, remind me tomorrow</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Your current media setting is Text, Images, and Videos.</t>
+          <t>💛 In stressful moments, even simple actions can help keep your child safe and close. Today’s tips share how to stay connected and calm when traveling.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Your current media setting is Text and Images Only.</t>
+          <t>🫂 Many parents are having quiet talks with their children about staying safe. Today’s tips explain how to keep your child safe from harassment in a calm, age-appropriate way.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Your current media setting is</t>
+          <t>🕊️ In war and other tough times, children notice more than we think. Today’s tips help you talk to your child about death so they can feel safer, less confused, and more supported. Would you like to receive the tips?</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>You didn't provide this info.</t>
+          <t>🌿 Building strength in tough times starts with simple steps. Would you like to learn how to promote good behaviors and stay strong together?</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Would you like to change it?</t>
+          <t>This time is difficult. It doesn't seem like you have the time for the these tips right now. When you are ready to keep going, press 1.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>You didn't tell us if you are a woman or a man.</t>
+          <t>We hope this was helpful! You can access the Main Menu at any time by typing {MENU}.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>You told us that you are a Woman.</t>
+          <t>To invite someone to join, share this link!</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>You told us that you are a Man.</t>
+          <t>{insert link}</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>You told us that you are a</t>
+          <t>What would you like to do next?</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Would you like to update your gender?</t>
+          <t>We hope this was helpful. You can access the Main Menu at any time by typing {MENU}.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>You are currently receiving messages in English.</t>
+          <t>You've reached the end of today's tip. Well done for caring for your child during this challenging time.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>You are currently receiving messages in Arabic.</t>
+          <t>What would you like change?</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>You are currently receiving messages in</t>
+          <t>Your current media setting is Text, Images, and Videos.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Would you like to change your language?</t>
+          <t>Your current media setting is Text and Images Only.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>*DAY @fields.curr_demo_day*</t>
+          <t>Your current media setting is</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>You completed the ParentText demo. Type RESET and then {FACSTART} to re-start from the beginning.</t>
+          <t>You didn't provide this info.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>There are @(fields.c_n_mod - fields.c_n_mod_compl) more tips.</t>
+          <t>Would you like to change it?</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>There is one more tip.</t>
+          <t>You didn't tell us if you are a woman or a man.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>You told us that you are a Woman.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>You told us that you are a Man.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Local and international support</t>
+          <t>You told us that you are a</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Medical services</t>
+          <t>Would you like to update your gender?</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Mental health support</t>
+          <t>You are currently receiving messages in English.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Family counselling services</t>
+          <t>You are currently receiving messages in Arabic.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Natural disasters</t>
+          <t>You are currently receiving messages in</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Get other emergency contacts</t>
+          <t>Would you like to change your language?</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Go to the Main Menu</t>
+          <t>*DAY @fields.curr_demo_day*</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Exit menu</t>
+          <t>You completed the ParentText demo. Type {RESET} and then {FACSTART} to re-start from the beginning.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BACK</t>
+          <t>There are @(fields.c_n_mod - fields.c_n_mod_compl) more tips.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>NEXT</t>
+          <t>There is one more tip.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A fun activity I can do with my child</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Proceed to the next tips</t>
+          <t>No</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Nothing. Let's continue tomorrow.</t>
+          <t>Local and international support</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Medical services</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Another fun activity I can do with my child</t>
+          <t>Mental health support</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Continue with more tips tomorrow.</t>
+          <t>Family counselling services</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>View another activity idea</t>
+          <t>Natural disasters</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Go to Main Menu</t>
+          <t>Child Protection</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Something Quick</t>
+          <t>Get other emergency contacts</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Something Active</t>
+          <t>Go to the Main Menu</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Something Calm</t>
+          <t>Exit menu</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Now</t>
+          <t>BACK</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Tomorrow</t>
+          <t>NEXT</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Continue my registration</t>
+          <t>A fun activity I can do with my child</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Remind me tomorrow</t>
+          <t>Proceed to the next tips</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Continue my initial questions</t>
+          <t>Nothing. Let's continue tomorrow.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Finish the previous tip</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Receive a new tip</t>
+          <t>Another fun activity I can do with my child</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Receive the remaining information</t>
+          <t>Continue with more tips tomorrow.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Remind me about this tomorrow</t>
+          <t>View another activity idea</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>I've finished receiving all of the information that I want from this chatbot.</t>
+          <t>Go to Main Menu</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>No, remind me tomorrow.</t>
+          <t>Something Quick</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Something Active</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Return to Menu</t>
+          <t>Something Calm</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Review a different tip</t>
+          <t>Now</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Review tips</t>
+          <t>Tomorrow</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Change my settings</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Invite a friend to ParentText</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Get more help</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Watch a video about ParentText</t>
+          <t>Return to Menu</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Get the next tip</t>
+          <t>Review a different tip</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Nothing, let's continue tomorrow</t>
+          <t>Review tips</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Change my profile</t>
+          <t>Change my settings</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Stop receiving the messages</t>
+          <t>Invite a friend to ParentText</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Return to Main Menu</t>
+          <t>Get more help</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Change my language</t>
+          <t>Watch a video about ParentText</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Change the way I receive content</t>
+          <t>Get the next tip</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Change my gender</t>
+          <t>Nothing, let's continue tomorrow</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Get the next tip.</t>
+          <t>Change my profile</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>generic</t>
+          <t>Stop receiving the messages</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>mental_health</t>
+          <t>Return to Main Menu</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>Change my language</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>natural_disasters</t>
+          <t>Change the way I receive content</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>Change my gender</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>menu</t>
+          <t>Get the next tip.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>play</t>
+          <t>generic</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>mental_health</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>start</t>
+          <t>health</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>pause</t>
+          <t>natural_disasters</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>yes y yeah yep</t>
+          <t>help</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>no n nope nah</t>
+          <t>menu</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>no n nope</t>
+          <t>play</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>local and international support</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>medical services</t>
+          <t>start</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>mental health support</t>
+          <t>pause</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>family counselling services</t>
+          <t>yes y yeah yep</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>natural disasters</t>
+          <t>no n nope nah</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>get other emergency contacts</t>
+          <t>no n nope</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>go to the main menu</t>
+          <t>local and international support</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>exit menu</t>
+          <t>medical services</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>mental health support</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>family counselling services</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>natural disasters</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>child protection</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>nothing. let's continue tomorrow.</t>
+          <t>get other emergency contacts</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>a fun activity i can do with my child</t>
+          <t>go to the main menu</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>proceed to the next tips</t>
+          <t>exit menu</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>na</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>another fun activity i can do with my child</t>
+          <t>no</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>continue with more tips tomorrow.</t>
+          <t>exit</t>
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>view another activity idea</t>
+          <t>back</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>go to main menu</t>
+          <t>nothing. let's continue tomorrow.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>something quick</t>
+          <t>a fun activity i can do with my child</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>something active</t>
+          <t>proceed to the next tips</t>
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>something calm</t>
+          <t>na</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>another fun activity i can do with my child</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>tomorrow</t>
+          <t>continue with more tips tomorrow.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>continue my registration</t>
+          <t>view another activity idea</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>remind me tomorrow</t>
+          <t>go to main menu</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>continue my initial questions</t>
+          <t>something quick</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>finish the previous tip</t>
+          <t>something active</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>receive a new tip</t>
+          <t>something calm</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>receive the remaining information</t>
+          <t>now</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>remind me about this tomorrow</t>
+          <t>tomorrow</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>i've finished receiving all of the information that i want from this chatbot.</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>no, remind me tomorrow.</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>return to menu</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>review a different tip</t>
+          <t>return to menu</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>review tips</t>
+          <t>review a different tip</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>change my settings</t>
+          <t>review tips</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>invite a friend to parenttext</t>
+          <t>change my settings</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>get more help</t>
+          <t>invite a friend to parenttext</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>watch a video about parenttext</t>
+          <t>get more help</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>get the next tip</t>
+          <t>watch a video about parenttext</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>nothing, let's continue tomorrow</t>
+          <t>get the next tip</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>change my profile</t>
+          <t>nothing, let's continue tomorrow</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>stop receiving the messages</t>
+          <t>change my profile</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>return to main menu</t>
+          <t>stop receiving the messages</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>change my language</t>
+          <t>return to main menu</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>change the way i receive content</t>
+          <t>change my language</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>change my gender</t>
+          <t>change the way i receive content</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>get the next tip.</t>
+          <t>change my gender</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
+          <t>get the next tip.</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
           <t>yes y yeah yep ok</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr"/>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/translations/parent_text_crisis_palestine/excel files/navigation.xlsx
+++ b/translations/parent_text_crisis_palestine/excel files/navigation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,7 +1402,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2. Remind me about this tomorrow</t>
+          <t>3. I've finished receiving all of the information that I want from this chatbot</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -1415,7 +1415,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3. I've finished receiving all of the information that I want from this chatbot</t>
+          <t>It looks like you have started, but not finished, @fields.c_n_mod_started tips. What would you like to do?</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -1428,7 +1428,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>It looks like you have started, but not finished, @fields.c_n_mod_started tips. What would you like to do?</t>
+          <t>2. Remind me about this tomorrow</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2. No, remind me tomorrow.</t>
+          <t>2. No, remind me tomorrow</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -1571,7 +1571,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2. No, remind me tomorrow</t>
+          <t>💛 In stressful moments, even simple actions can help keep your child safe and close. Today’s tips share how to stay connected and calm when traveling.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -1584,7 +1584,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>💛 In stressful moments, even simple actions can help keep your child safe and close. Today’s tips share how to stay connected and calm when traveling.</t>
+          <t>🫂 Many parents are having quiet talks with their children about staying safe. Today’s tips explain how to keep your child safe from harassment in a calm, age-appropriate way.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1597,7 +1597,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>🫂 Many parents are having quiet talks with their children about staying safe. Today’s tips explain how to keep your child safe from harassment in a calm, age-appropriate way.</t>
+          <t>🕊️ In war and other tough times, children notice more than we think. Today’s tips help you talk to your child about death so they can feel safer, less confused, and more supported. Would you like to receive the tips?</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -1610,7 +1610,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>🕊️ In war and other tough times, children notice more than we think. Today’s tips help you talk to your child about death so they can feel safer, less confused, and more supported. Would you like to receive the tips?</t>
+          <t>🌿 Building strength in tough times starts with simple steps. Would you like to learn how to promote good behaviors and stay strong together?</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -1623,7 +1623,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>🌿 Building strength in tough times starts with simple steps. Would you like to learn how to promote good behaviors and stay strong together?</t>
+          <t>This time is difficult. It doesn't seem like you have the time for the these tips right now. When you are ready to keep going, press 1.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -1636,7 +1636,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>This time is difficult. It doesn't seem like you have the time for the these tips right now. When you are ready to keep going, press 1.</t>
+          <t>We hope this was helpful! You can access the Main Menu at any time by typing {MENU}.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -1649,7 +1649,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>We hope this was helpful! You can access the Main Menu at any time by typing {MENU}.</t>
+          <t>To invite someone to join, share this link!</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -1662,7 +1662,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>To invite someone to join, share this link!</t>
+          <t>{insert link}</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -1675,7 +1675,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>{insert link}</t>
+          <t>What would you like to do next?</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>What would you like to do next?</t>
+          <t>We hope this was helpful. You can access the Main Menu at any time by typing {MENU}.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -1701,7 +1701,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>We hope this was helpful. You can access the Main Menu at any time by typing {MENU}.</t>
+          <t>You've reached the end of today's tip. Well done for caring for your child during this challenging time.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
@@ -1714,7 +1714,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>You've reached the end of today's tip. Well done for caring for your child during this challenging time.</t>
+          <t>What would you like change?</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -1727,7 +1727,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>What would you like change?</t>
+          <t>Your current media setting is Text, Images, and Videos.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -1740,7 +1740,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Your current media setting is Text, Images, and Videos.</t>
+          <t>Your current media setting is Text and Images Only.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -1753,7 +1753,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Your current media setting is Text and Images Only.</t>
+          <t>Your current media setting is</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
@@ -1766,7 +1766,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Your current media setting is</t>
+          <t>You didn't provide this info.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
@@ -1779,7 +1779,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>You didn't provide this info.</t>
+          <t>Would you like to change it?</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -1792,7 +1792,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Would you like to change it?</t>
+          <t>You didn't tell us if you are a woman or a man.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
@@ -1805,7 +1805,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>You didn't tell us if you are a woman or a man.</t>
+          <t>You told us that you are a Woman.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
@@ -1818,7 +1818,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>You told us that you are a Woman.</t>
+          <t>You told us that you are a Man.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
@@ -1831,7 +1831,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>You told us that you are a Man.</t>
+          <t>You told us that you are a</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
@@ -1844,7 +1844,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>You told us that you are a</t>
+          <t>Would you like to update your gender?</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -1857,7 +1857,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Would you like to update your gender?</t>
+          <t>You are currently receiving messages in English.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>You are currently receiving messages in English.</t>
+          <t>You are currently receiving messages in Arabic.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
@@ -1883,7 +1883,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>You are currently receiving messages in Arabic.</t>
+          <t>You are currently receiving messages in</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>You are currently receiving messages in</t>
+          <t>Would you like to change your language?</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
@@ -1909,7 +1909,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Would you like to change your language?</t>
+          <t>*DAY @fields.curr_demo_day*</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -1922,7 +1922,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>*DAY @fields.curr_demo_day*</t>
+          <t>You completed the ParentText demo. Type {RESET} and then {FACSTART} to re-start from the beginning.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
@@ -1935,7 +1935,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>You completed the ParentText demo. Type {RESET} and then {FACSTART} to re-start from the beginning.</t>
+          <t>There are @(fields.c_n_mod - fields.c_n_mod_compl) more tips.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -1948,7 +1948,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>There are @(fields.c_n_mod - fields.c_n_mod_compl) more tips.</t>
+          <t>There is one more tip.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
@@ -1961,20 +1961,20 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>There is one more tip.</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>quick_replies</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -1987,7 +1987,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Local and international support</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
@@ -2000,7 +2000,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Local and international support</t>
+          <t>Medical services</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
@@ -2013,7 +2013,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Medical services</t>
+          <t>Mental health support</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -2026,7 +2026,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Mental health support</t>
+          <t>Family counselling services</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
@@ -2039,7 +2039,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Family counselling services</t>
+          <t>Natural disasters</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2052,7 +2052,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Natural disasters</t>
+          <t>Child Protection</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
@@ -2065,7 +2065,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Child Protection</t>
+          <t>Get other emergency contacts</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -2078,7 +2078,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Get other emergency contacts</t>
+          <t>Go to the Main Menu</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
@@ -2091,7 +2091,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Go to the Main Menu</t>
+          <t>Exit menu</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
@@ -2104,7 +2104,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Exit menu</t>
+          <t>BACK</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2117,7 +2117,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BACK</t>
+          <t>NEXT</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
@@ -2130,7 +2130,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>NEXT</t>
+          <t>A fun activity I can do with my child</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
@@ -2143,7 +2143,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A fun activity I can do with my child</t>
+          <t>Proceed to the next tips</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
@@ -2156,7 +2156,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Proceed to the next tips</t>
+          <t>Nothing. Let's continue tomorrow.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
@@ -2169,7 +2169,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Nothing. Let's continue tomorrow.</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2182,7 +2182,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Another fun activity I can do with my child</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
@@ -2195,7 +2195,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Another fun activity I can do with my child</t>
+          <t>Continue with more tips tomorrow.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
@@ -2208,7 +2208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Continue with more tips tomorrow.</t>
+          <t>View another activity idea</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
@@ -2221,7 +2221,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>View another activity idea</t>
+          <t>Go to Main Menu</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -2234,7 +2234,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Go to Main Menu</t>
+          <t>Something Quick</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2247,7 +2247,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Something Quick</t>
+          <t>Something Active</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
@@ -2260,7 +2260,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Something Active</t>
+          <t>Something Calm</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -2273,7 +2273,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Something Calm</t>
+          <t>Now</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
@@ -2286,7 +2286,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Now</t>
+          <t>Tomorrow</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Tomorrow</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2312,7 +2312,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
@@ -2325,7 +2325,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Return to Menu</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
@@ -2351,7 +2351,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Return to Menu</t>
+          <t>Review a different tip</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
@@ -2364,7 +2364,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Review a different tip</t>
+          <t>Review tips</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2377,7 +2377,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Review tips</t>
+          <t>Change my settings</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
@@ -2390,7 +2390,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Change my settings</t>
+          <t>Invite a friend to ParentText</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -2403,7 +2403,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Invite a friend to ParentText</t>
+          <t>Get more help</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
@@ -2416,7 +2416,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Get more help</t>
+          <t>Watch a video about ParentText</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
@@ -2429,7 +2429,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Watch a video about ParentText</t>
+          <t>Get the next tip</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Get the next tip</t>
+          <t>Nothing, let's continue tomorrow</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
@@ -2455,7 +2455,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Nothing, let's continue tomorrow</t>
+          <t>Change my profile</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
@@ -2468,7 +2468,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Change my profile</t>
+          <t>Stop receiving the messages</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Stop receiving the messages</t>
+          <t>Return to Main Menu</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
@@ -2494,7 +2494,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Return to Main Menu</t>
+          <t>Change my language</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -2507,7 +2507,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Change my language</t>
+          <t>Change the way I receive content</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
@@ -2520,7 +2520,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Change the way I receive content</t>
+          <t>Change my gender</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
@@ -2533,7 +2533,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Change my gender</t>
+          <t>Get the next tip.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
@@ -2546,20 +2546,20 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Get the next tip.</t>
+          <t>generic</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
         <is>
-          <t>quick_replies</t>
+          <t>arguments</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>generic</t>
+          <t>mental_health</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -2572,7 +2572,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>mental_health</t>
+          <t>health</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
@@ -2585,7 +2585,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>natural_disasters</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
@@ -2598,7 +2598,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>natural_disasters</t>
+          <t>help</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
@@ -2611,7 +2611,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>menu</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
@@ -2624,7 +2624,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>menu</t>
+          <t>play</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -2637,7 +2637,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>play</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>start</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -2663,7 +2663,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>start</t>
+          <t>pause</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>pause</t>
+          <t>yes y yeah yep</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
@@ -2689,7 +2689,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>yes y yeah yep</t>
+          <t>no n nope nah</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -2702,7 +2702,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>no n nope nah</t>
+          <t>no n nope</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
@@ -2715,7 +2715,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>no n nope</t>
+          <t>local and international support</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>local and international support</t>
+          <t>medical services</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
@@ -2741,7 +2741,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>medical services</t>
+          <t>mental health support</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
@@ -2754,7 +2754,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>mental health support</t>
+          <t>family counselling services</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -2767,7 +2767,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>family counselling services</t>
+          <t>natural disasters</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>natural disasters</t>
+          <t>child protection</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
@@ -2793,7 +2793,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>child protection</t>
+          <t>get other emergency contacts</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
@@ -2806,7 +2806,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>get other emergency contacts</t>
+          <t>go to the main menu</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
@@ -2819,7 +2819,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>go to the main menu</t>
+          <t>exit menu</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -2832,7 +2832,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>exit menu</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
@@ -2845,7 +2845,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>exit</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>back</t>
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
@@ -2884,7 +2884,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>nothing. let's continue tomorrow.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -2897,7 +2897,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>nothing. let's continue tomorrow.</t>
+          <t>a fun activity i can do with my child</t>
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
@@ -2910,7 +2910,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>a fun activity i can do with my child</t>
+          <t>proceed to the next tips</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
@@ -2923,7 +2923,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>proceed to the next tips</t>
+          <t>na</t>
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
@@ -2936,7 +2936,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>na</t>
+          <t>another fun activity i can do with my child</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
@@ -2949,7 +2949,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>another fun activity i can do with my child</t>
+          <t>continue with more tips tomorrow.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -2962,7 +2962,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>continue with more tips tomorrow.</t>
+          <t>view another activity idea</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>view another activity idea</t>
+          <t>go to main menu</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
@@ -2988,7 +2988,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>go to main menu</t>
+          <t>something quick</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
@@ -3001,7 +3001,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>something quick</t>
+          <t>something active</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
@@ -3014,7 +3014,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>something active</t>
+          <t>something calm</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>something calm</t>
+          <t>now</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
@@ -3040,7 +3040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>tomorrow</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -3053,7 +3053,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>tomorrow</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -3066,7 +3066,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
@@ -3079,7 +3079,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3092,7 +3092,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>return to menu</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
@@ -3105,7 +3105,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>return to menu</t>
+          <t>review a different tip</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -3118,7 +3118,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>review a different tip</t>
+          <t>review tips</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
@@ -3131,7 +3131,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>review tips</t>
+          <t>change my settings</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
@@ -3144,7 +3144,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>change my settings</t>
+          <t>invite a friend to parenttext</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>invite a friend to parenttext</t>
+          <t>get more help</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
@@ -3170,7 +3170,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>get more help</t>
+          <t>watch a video about parenttext</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -3183,7 +3183,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>watch a video about parenttext</t>
+          <t>get the next tip</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
@@ -3196,7 +3196,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>get the next tip</t>
+          <t>nothing, let's continue tomorrow</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
@@ -3209,7 +3209,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>nothing, let's continue tomorrow</t>
+          <t>change my profile</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3222,7 +3222,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>change my profile</t>
+          <t>stop receiving the messages</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
@@ -3235,7 +3235,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>stop receiving the messages</t>
+          <t>return to main menu</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -3248,7 +3248,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>return to main menu</t>
+          <t>change my language</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
@@ -3261,7 +3261,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>change my language</t>
+          <t>change the way i receive content</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
@@ -3274,7 +3274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>change the way i receive content</t>
+          <t>change my gender</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3287,7 +3287,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>change my gender</t>
+          <t>get the next tip.</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
@@ -3300,24 +3300,11 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>get the next tip.</t>
+          <t>yes y yeah yep ok</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
       <c r="C221" t="inlineStr">
-        <is>
-          <t>arguments</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>yes y yeah yep ok</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr"/>
-      <c r="C222" t="inlineStr">
         <is>
           <t>arguments</t>
         </is>

--- a/translations/parent_text_crisis_palestine/excel files/navigation.xlsx
+++ b/translations/parent_text_crisis_palestine/excel files/navigation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C221"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{mental_health referrals}</t>
+          <t>{mental_health_referrals}</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{natural_disasters referrals}</t>
+          <t>{natural_disasters_referrals}</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>{child_protection}</t>
+          <t>{child_protection_referrals}</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1428,7 +1428,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2. Remind me about this tomorrow</t>
+          <t>You and your family are facing a challenging time. ParentText provides tips on how you can support your child during this crisis. Would you like to recieve your first tips now?</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>You and your family are facing a challenging time. ParentText provides tips on how you can support your child during this crisis. Would you like to recieve your first tips now?</t>
+          <t>1. Yes</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -1454,7 +1454,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1. Yes</t>
+          <t>2. No, remind me tomorrow</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2. No, remind me tomorrow</t>
+          <t>New tips are ready for you. Would you like to continue now?</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -1480,7 +1480,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>New tips are ready for you. Would you like to continue now?</t>
+          <t xml:space="preserve">💛 We’re thinking of you today. There are simple things you can do to help your child cope. Would you like to learn about them? </t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -1493,7 +1493,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">💛 We’re thinking of you today. There are simple things you can do to help your child cope. Would you like to learn about them? </t>
+          <t xml:space="preserve">✨ Today’s tips can help your child feel more safe. Would you like to learn more? </t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -1506,7 +1506,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">✨ Today’s tips can help your child feel more safe. Would you like to learn more? </t>
+          <t xml:space="preserve">Today’s tips offer you some ways you can stay calm and also encourage your children during times of uncertainty 🌱. </t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -1519,7 +1519,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Today’s tips offer you some ways you can stay calm and also encourage your children during times of uncertainty 🌱. </t>
+          <t>Would you like to receive them?</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1532,7 +1532,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Would you like to receive them?</t>
+          <t>🧡 Planning to travel with your child soon?</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -1545,7 +1545,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>🧡 Planning to travel with your child soon?</t>
+          <t>Today’s tips can help you prepare to stay safe— Would you like to learn more?</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -1558,7 +1558,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Today’s tips can help you prepare to stay safe— Would you like to learn more?</t>
+          <t>💛 In stressful moments, even simple actions can help keep your child safe and close. Today’s tips share how to stay connected and calm when traveling.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -1571,7 +1571,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>💛 In stressful moments, even simple actions can help keep your child safe and close. Today’s tips share how to stay connected and calm when traveling.</t>
+          <t>🫂 Many parents are having quiet talks with their children about staying safe. Today’s tips explain how to keep your child safe from harassment in a calm, age-appropriate way.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -1584,7 +1584,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>🫂 Many parents are having quiet talks with their children about staying safe. Today’s tips explain how to keep your child safe from harassment in a calm, age-appropriate way.</t>
+          <t>🕊️ In war and other tough times, children notice more than we think. Today’s tips help you talk to your child about death so they can feel safer, less confused, and more supported. Would you like to receive the tips?</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1597,7 +1597,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>🕊️ In war and other tough times, children notice more than we think. Today’s tips help you talk to your child about death so they can feel safer, less confused, and more supported. Would you like to receive the tips?</t>
+          <t>🌿 Building strength in tough times starts with simple steps. Would you like to learn how to promote good behaviors and stay strong together?</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -1610,7 +1610,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>🌿 Building strength in tough times starts with simple steps. Would you like to learn how to promote good behaviors and stay strong together?</t>
+          <t>This time is difficult. It doesn't seem like you have the time for the these tips right now. When you are ready to keep going, press 1.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -1623,7 +1623,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>This time is difficult. It doesn't seem like you have the time for the these tips right now. When you are ready to keep going, press 1.</t>
+          <t>We hope this was helpful! You can access the Main Menu at any time by typing {MENU}.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -1636,7 +1636,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>We hope this was helpful! You can access the Main Menu at any time by typing {MENU}.</t>
+          <t>To invite someone to join, share this link!</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -1649,7 +1649,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>To invite someone to join, share this link!</t>
+          <t>{insert link}</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -1662,7 +1662,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>{insert link}</t>
+          <t>What would you like to do next?</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -1675,7 +1675,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>What would you like to do next?</t>
+          <t>We hope this was helpful. You can access the Main Menu at any time by typing {MENU}.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>We hope this was helpful. You can access the Main Menu at any time by typing {MENU}.</t>
+          <t>You've reached the end of today's tip. Well done for caring for your child during this challenging time.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -1701,7 +1701,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>You've reached the end of today's tip. Well done for caring for your child during this challenging time.</t>
+          <t>What would you like change?</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
@@ -1714,7 +1714,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>What would you like change?</t>
+          <t>Your current media setting is Text, Images, and Videos.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -1727,7 +1727,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Your current media setting is Text, Images, and Videos.</t>
+          <t>Your current media setting is Text and Images Only.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -1740,7 +1740,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Your current media setting is Text and Images Only.</t>
+          <t>Your current media setting is</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -1753,7 +1753,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Your current media setting is</t>
+          <t>You didn't provide this info.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
@@ -1766,7 +1766,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>You didn't provide this info.</t>
+          <t>Would you like to change it?</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
@@ -1779,7 +1779,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Would you like to change it?</t>
+          <t>You didn't tell us if you are a woman or a man.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -1792,7 +1792,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>You didn't tell us if you are a woman or a man.</t>
+          <t>You told us that you are a Woman.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
@@ -1805,7 +1805,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>You told us that you are a Woman.</t>
+          <t>You told us that you are a Man.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
@@ -1818,7 +1818,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>You told us that you are a Man.</t>
+          <t>You told us that you are a</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
@@ -1831,7 +1831,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>You told us that you are a</t>
+          <t>Would you like to update your gender?</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
@@ -1844,7 +1844,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Would you like to update your gender?</t>
+          <t>You are currently receiving messages in English.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -1857,7 +1857,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>You are currently receiving messages in English.</t>
+          <t>You are currently receiving messages in Arabic.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>You are currently receiving messages in Arabic.</t>
+          <t>You are currently receiving messages in</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
@@ -1883,7 +1883,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>You are currently receiving messages in</t>
+          <t>Would you like to change your language?</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Would you like to change your language?</t>
+          <t>*DAY @fields.curr_demo_day*</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
@@ -1909,7 +1909,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>*DAY @fields.curr_demo_day*</t>
+          <t>You completed the ParentText demo. Type {RESET} and then {FACSTART} to re-start from the beginning.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -1922,7 +1922,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>You completed the ParentText demo. Type {RESET} and then {FACSTART} to re-start from the beginning.</t>
+          <t>There are @(fields.c_n_mod - fields.c_n_mod_compl) more tips.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
@@ -1935,7 +1935,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>There are @(fields.c_n_mod - fields.c_n_mod_compl) more tips.</t>
+          <t>There is one more tip.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -1948,20 +1948,20 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>There is one more tip.</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>quick_replies</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
@@ -1974,7 +1974,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Local and international support</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -1987,7 +1987,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Local and international support</t>
+          <t>Medical services</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
@@ -2000,7 +2000,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Medical services</t>
+          <t>Mental health support</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
@@ -2013,7 +2013,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Mental health support</t>
+          <t>Family counselling services</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -2026,7 +2026,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Family counselling services</t>
+          <t>Natural disasters</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
@@ -2039,7 +2039,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Natural disasters</t>
+          <t>Child Protection</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2052,7 +2052,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Child Protection</t>
+          <t>Get other emergency contacts</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
@@ -2065,7 +2065,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Get other emergency contacts</t>
+          <t>Go to the Main Menu</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -2078,7 +2078,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Go to the Main Menu</t>
+          <t>Exit menu</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
@@ -2091,7 +2091,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Exit menu</t>
+          <t>BACK</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
@@ -2104,7 +2104,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BACK</t>
+          <t>NEXT</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2117,7 +2117,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>NEXT</t>
+          <t>A fun activity I can do with my child</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
@@ -2130,7 +2130,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A fun activity I can do with my child</t>
+          <t>Proceed to the next tips</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
@@ -2143,7 +2143,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Proceed to the next tips</t>
+          <t>Nothing. Let's continue tomorrow.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
@@ -2156,7 +2156,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Nothing. Let's continue tomorrow.</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
@@ -2169,7 +2169,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Another fun activity I can do with my child</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2182,7 +2182,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Another fun activity I can do with my child</t>
+          <t>Continue with more tips tomorrow.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
@@ -2195,7 +2195,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Continue with more tips tomorrow.</t>
+          <t>View another activity idea</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
@@ -2208,7 +2208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>View another activity idea</t>
+          <t>Go to Main Menu</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
@@ -2221,7 +2221,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Go to Main Menu</t>
+          <t>Something Quick</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -2234,7 +2234,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Something Quick</t>
+          <t>Something Active</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2247,7 +2247,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Something Active</t>
+          <t>Something Calm</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
@@ -2260,7 +2260,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Something Calm</t>
+          <t>Now</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -2273,7 +2273,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Now</t>
+          <t>Tomorrow</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
@@ -2286,7 +2286,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Tomorrow</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2312,7 +2312,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
@@ -2325,7 +2325,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Return to Menu</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Return to Menu</t>
+          <t>Review a different tip</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
@@ -2351,7 +2351,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Review a different tip</t>
+          <t>Review tips</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
@@ -2364,7 +2364,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Review tips</t>
+          <t>Change my settings</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2377,7 +2377,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Change my settings</t>
+          <t>Invite a friend to ParentText</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
@@ -2390,7 +2390,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Invite a friend to ParentText</t>
+          <t>Get more help</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -2403,7 +2403,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Get more help</t>
+          <t>Watch a video about ParentText</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
@@ -2416,7 +2416,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Watch a video about ParentText</t>
+          <t>Get the next tip</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
@@ -2429,7 +2429,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Get the next tip</t>
+          <t>Nothing, let's continue tomorrow</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Nothing, let's continue tomorrow</t>
+          <t>Change my profile</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
@@ -2455,7 +2455,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Change my profile</t>
+          <t>Stop receiving the messages</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
@@ -2468,7 +2468,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Stop receiving the messages</t>
+          <t>Return to Main Menu</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Return to Main Menu</t>
+          <t>Change my language</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
@@ -2494,7 +2494,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Change my language</t>
+          <t>Change the way I receive content</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -2507,7 +2507,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Change the way I receive content</t>
+          <t>Change my gender</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
@@ -2520,7 +2520,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Change my gender</t>
+          <t>Get the next tip.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
@@ -2533,20 +2533,20 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Get the next tip.</t>
+          <t>generic</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr">
         <is>
-          <t>quick_replies</t>
+          <t>arguments</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>generic</t>
+          <t>mental_health</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
@@ -2559,7 +2559,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>mental_health</t>
+          <t>health</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -2572,7 +2572,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>health</t>
+          <t>natural_disasters</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
@@ -2585,7 +2585,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>natural_disasters</t>
+          <t>help</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
@@ -2598,7 +2598,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>menu</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
@@ -2611,7 +2611,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>menu</t>
+          <t>play</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
@@ -2624,7 +2624,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>play</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -2637,7 +2637,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>start</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>start</t>
+          <t>pause</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -2663,7 +2663,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>pause</t>
+          <t>yes y yeah yep</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>yes y yeah yep</t>
+          <t>no n nope nah</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
@@ -2689,7 +2689,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>no n nope nah</t>
+          <t>no n nope</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -2702,7 +2702,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>no n nope</t>
+          <t>local and international support</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
@@ -2715,7 +2715,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>local and international support</t>
+          <t>medical services</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>medical services</t>
+          <t>mental health support</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
@@ -2741,7 +2741,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>mental health support</t>
+          <t>family counselling services</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
@@ -2754,7 +2754,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>family counselling services</t>
+          <t>natural disasters</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -2767,7 +2767,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>natural disasters</t>
+          <t>child protection</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>child protection</t>
+          <t>get other emergency contacts</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
@@ -2793,7 +2793,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>get other emergency contacts</t>
+          <t>go to the main menu</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
@@ -2806,7 +2806,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>go to the main menu</t>
+          <t>exit menu</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
@@ -2819,7 +2819,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>exit menu</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -2832,7 +2832,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
@@ -2845,7 +2845,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>exit</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>back</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>nothing. let's continue tomorrow.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
@@ -2884,7 +2884,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>nothing. let's continue tomorrow.</t>
+          <t>a fun activity i can do with my child</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -2897,7 +2897,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>a fun activity i can do with my child</t>
+          <t>proceed to the next tips</t>
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
@@ -2910,7 +2910,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>proceed to the next tips</t>
+          <t>na</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
@@ -2923,7 +2923,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>na</t>
+          <t>another fun activity i can do with my child</t>
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
@@ -2936,7 +2936,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>another fun activity i can do with my child</t>
+          <t>continue with more tips tomorrow.</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
@@ -2949,7 +2949,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>continue with more tips tomorrow.</t>
+          <t>view another activity idea</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -2962,7 +2962,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>view another activity idea</t>
+          <t>go to main menu</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>go to main menu</t>
+          <t>something quick</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
@@ -2988,7 +2988,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>something quick</t>
+          <t>something active</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
@@ -3001,7 +3001,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>something active</t>
+          <t>something calm</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
@@ -3014,7 +3014,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>something calm</t>
+          <t>now</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>tomorrow</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
@@ -3040,7 +3040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>tomorrow</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -3053,7 +3053,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -3066,7 +3066,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
@@ -3079,7 +3079,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>return to menu</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3092,7 +3092,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>return to menu</t>
+          <t>review a different tip</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
@@ -3105,7 +3105,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>review a different tip</t>
+          <t>review tips</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -3118,7 +3118,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>review tips</t>
+          <t>change my settings</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
@@ -3131,7 +3131,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>change my settings</t>
+          <t>invite a friend to parenttext</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
@@ -3144,7 +3144,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>invite a friend to parenttext</t>
+          <t>get more help</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>get more help</t>
+          <t>watch a video about parenttext</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
@@ -3170,7 +3170,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>watch a video about parenttext</t>
+          <t>get the next tip</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -3183,7 +3183,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>get the next tip</t>
+          <t>nothing, let's continue tomorrow</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
@@ -3196,7 +3196,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>nothing, let's continue tomorrow</t>
+          <t>change my profile</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
@@ -3209,7 +3209,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>change my profile</t>
+          <t>stop receiving the messages</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3222,7 +3222,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>stop receiving the messages</t>
+          <t>return to main menu</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
@@ -3235,7 +3235,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>return to main menu</t>
+          <t>change my language</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -3248,7 +3248,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>change my language</t>
+          <t>change the way i receive content</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
@@ -3261,7 +3261,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>change the way i receive content</t>
+          <t>change my gender</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
@@ -3274,7 +3274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>change my gender</t>
+          <t>get the next tip.</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3287,24 +3287,11 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>get the next tip.</t>
+          <t>yes y yeah yep ok</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="inlineStr">
-        <is>
-          <t>arguments</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>yes y yeah yep ok</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr"/>
-      <c r="C221" t="inlineStr">
         <is>
           <t>arguments</t>
         </is>
